--- a/algorithm/Трифонов Сравнения.xlsx
+++ b/algorithm/Трифонов Сравнения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\c--study\algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A724DC-DDB3-4BA0-8CD8-778526024EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D1062-83C6-4614-B51A-75E2310EAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>СВ стандарт</t>
+  </si>
+  <si>
+    <t>Размер стороны лабиринта</t>
   </si>
 </sst>
 </file>
@@ -81,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -155,7 +161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$1</c:f>
+              <c:f>Лист1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -178,7 +184,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$10</c:f>
+              <c:f>Лист1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -214,7 +220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$2:$F$10</c:f>
+              <c:f>Лист1!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -260,7 +266,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$1</c:f>
+              <c:f>Лист1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,7 +289,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$10</c:f>
+              <c:f>Лист1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -319,7 +325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$10</c:f>
+              <c:f>Лист1!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -365,7 +371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$1</c:f>
+              <c:f>Лист1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,7 +394,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$10</c:f>
+              <c:f>Лист1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -424,7 +430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$2:$H$10</c:f>
+              <c:f>Лист1!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -722,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$12</c:f>
+              <c:f>Лист1!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,7 +751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$13:$E$21</c:f>
+              <c:f>Лист1!$E$14:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -781,7 +787,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$13:$F$21</c:f>
+              <c:f>Лист1!$F$14:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -827,7 +833,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$12</c:f>
+              <c:f>Лист1!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -850,7 +856,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$13:$E$21</c:f>
+              <c:f>Лист1!$E$14:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -886,7 +892,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$13:$G$21</c:f>
+              <c:f>Лист1!$G$14:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -932,7 +938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$12</c:f>
+              <c:f>Лист1!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,7 +961,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$E$13:$E$21</c:f>
+              <c:f>Лист1!$E$14:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -991,7 +997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$13:$H$21</c:f>
+              <c:f>Лист1!$H$14:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7384,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,31 +7400,24 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>501</v>
-      </c>
-      <c r="F2">
-        <v>57</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>63</v>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7432,16 +7431,16 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="G3">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>252</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7455,16 +7454,16 @@
         <v>232</v>
       </c>
       <c r="E4">
-        <v>1501</v>
+        <v>1001</v>
       </c>
       <c r="F4">
-        <v>560</v>
+        <v>232</v>
       </c>
       <c r="G4">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="H4">
-        <v>561</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7478,16 +7477,16 @@
         <v>560</v>
       </c>
       <c r="E5">
-        <v>2001</v>
+        <v>1501</v>
       </c>
       <c r="F5">
-        <v>1004</v>
+        <v>560</v>
       </c>
       <c r="G5">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="H5">
-        <v>1005</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7501,16 +7500,16 @@
         <v>1004</v>
       </c>
       <c r="E6">
-        <v>2501</v>
+        <v>2001</v>
       </c>
       <c r="F6">
-        <v>1598</v>
+        <v>1004</v>
       </c>
       <c r="G6">
-        <v>777</v>
+        <v>465</v>
       </c>
       <c r="H6">
-        <v>1553</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7524,16 +7523,16 @@
         <v>1598</v>
       </c>
       <c r="E7">
-        <v>3001</v>
+        <v>2501</v>
       </c>
       <c r="F7">
-        <v>2352</v>
+        <v>1598</v>
       </c>
       <c r="G7">
-        <v>1116</v>
+        <v>777</v>
       </c>
       <c r="H7">
-        <v>2231</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,16 +7546,16 @@
         <v>2352</v>
       </c>
       <c r="E8">
-        <v>3501</v>
+        <v>3001</v>
       </c>
       <c r="F8">
-        <v>3101</v>
+        <v>2352</v>
       </c>
       <c r="G8">
-        <v>1791</v>
+        <v>1116</v>
       </c>
       <c r="H8">
-        <v>3059</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7570,16 +7569,16 @@
         <v>3101</v>
       </c>
       <c r="E9">
-        <v>4001</v>
+        <v>3501</v>
       </c>
       <c r="F9">
-        <v>3981</v>
+        <v>3101</v>
       </c>
       <c r="G9">
-        <v>2159</v>
+        <v>1791</v>
       </c>
       <c r="H9">
-        <v>4039</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,16 +7592,16 @@
         <v>3981</v>
       </c>
       <c r="E10">
-        <v>4501</v>
+        <v>4001</v>
       </c>
       <c r="F10">
-        <v>5072</v>
+        <v>3981</v>
       </c>
       <c r="G10">
-        <v>2959</v>
+        <v>2159</v>
       </c>
       <c r="H10">
-        <v>5283</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7615,20 +7614,23 @@
       <c r="C11">
         <v>5072</v>
       </c>
+      <c r="E11">
+        <v>4501</v>
+      </c>
+      <c r="F11">
+        <v>5072</v>
+      </c>
+      <c r="G11">
+        <v>2959</v>
+      </c>
+      <c r="H11">
+        <v>5283</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7640,17 +7642,14 @@
       <c r="C13">
         <v>32</v>
       </c>
-      <c r="E13">
-        <v>501</v>
-      </c>
-      <c r="F13">
-        <v>110371</v>
-      </c>
-      <c r="G13">
-        <v>35003</v>
-      </c>
-      <c r="H13">
-        <v>124998</v>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7664,16 +7663,16 @@
         <v>133</v>
       </c>
       <c r="E14">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="F14">
-        <v>447494</v>
+        <v>110371</v>
       </c>
       <c r="G14">
-        <v>136717</v>
+        <v>35003</v>
       </c>
       <c r="H14">
-        <v>499998</v>
+        <v>124998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7687,16 +7686,16 @@
         <v>264</v>
       </c>
       <c r="E15">
-        <v>1501</v>
+        <v>1001</v>
       </c>
       <c r="F15">
-        <v>1076316</v>
+        <v>447494</v>
       </c>
       <c r="G15">
-        <v>266947</v>
+        <v>136717</v>
       </c>
       <c r="H15">
-        <v>1124999</v>
+        <v>499998</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7710,16 +7709,16 @@
         <v>465</v>
       </c>
       <c r="E16">
-        <v>2001</v>
+        <v>1501</v>
       </c>
       <c r="F16">
-        <v>1936602</v>
+        <v>1076316</v>
       </c>
       <c r="G16">
-        <v>468391</v>
+        <v>266947</v>
       </c>
       <c r="H16">
-        <v>1999999</v>
+        <v>1124999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7733,16 +7732,16 @@
         <v>777</v>
       </c>
       <c r="E17">
-        <v>2501</v>
+        <v>2001</v>
       </c>
       <c r="F17">
-        <v>3072381</v>
+        <v>1936602</v>
       </c>
       <c r="G17">
-        <v>750755</v>
+        <v>468391</v>
       </c>
       <c r="H17">
-        <v>3124998</v>
+        <v>1999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7756,16 +7755,16 @@
         <v>1116</v>
       </c>
       <c r="E18">
-        <v>3001</v>
+        <v>2501</v>
       </c>
       <c r="F18">
-        <v>4460668</v>
+        <v>3072381</v>
       </c>
       <c r="G18">
-        <v>1075597</v>
+        <v>750755</v>
       </c>
       <c r="H18">
-        <v>4499998</v>
+        <v>3124998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7779,16 +7778,16 @@
         <v>1791</v>
       </c>
       <c r="E19">
-        <v>3501</v>
+        <v>3001</v>
       </c>
       <c r="F19">
-        <v>6004314</v>
+        <v>4460668</v>
       </c>
       <c r="G19">
-        <v>1720357</v>
+        <v>1075597</v>
       </c>
       <c r="H19">
-        <v>6124998</v>
+        <v>4499998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7802,16 +7801,16 @@
         <v>2159</v>
       </c>
       <c r="E20">
-        <v>4001</v>
+        <v>3501</v>
       </c>
       <c r="F20">
-        <v>7685012</v>
+        <v>6004314</v>
       </c>
       <c r="G20">
-        <v>2054349</v>
+        <v>1720357</v>
       </c>
       <c r="H20">
-        <v>7999999</v>
+        <v>6124998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7825,22 +7824,34 @@
         <v>2959</v>
       </c>
       <c r="E21">
-        <v>4501</v>
+        <v>4001</v>
       </c>
       <c r="F21">
-        <v>9680508</v>
+        <v>7685012</v>
       </c>
       <c r="G21">
-        <v>2770555</v>
+        <v>2054349</v>
       </c>
       <c r="H21">
-        <v>10124998</v>
+        <v>7999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="E22">
+        <v>4501</v>
+      </c>
+      <c r="F22">
+        <v>9680508</v>
+      </c>
+      <c r="G22">
+        <v>2770555</v>
+      </c>
+      <c r="H22">
+        <v>10124998</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -9044,7 +9055,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>